--- a/example_data/MFAP4_WTVFQK_y4.xlsx
+++ b/example_data/MFAP4_WTVFQK_y4.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan_farba/Studyproject/StuPro_SS24_CalibraCurve/example_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schorkka\Documents\UNI2\Projekte\CalibraCurve\CalibraCurve\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8FC813-B755-354E-A253-4F92E4FE8222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{686C40BA-1224-4DF1-A717-EE2886BDB6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16000"/>
+    <workbookView xWindow="40750" yWindow="1390" windowWidth="28800" windowHeight="15370" xr2:uid="{62CB2843-9154-4B71-9B8D-9CA334A09A62}"/>
   </bookViews>
   <sheets>
     <sheet name="MFAP4_WTVFQK_y4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="292" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
   <si>
     <t>Sample No</t>
   </si>
@@ -60,12 +55,6 @@
     <t>y4</t>
   </si>
   <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.00025</t>
-  </si>
-  <si>
     <t>QQQ_6559</t>
   </si>
   <si>
@@ -81,12 +70,6 @@
     <t>QQQ_6537</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.0005</t>
-  </si>
-  <si>
     <t>QQQ_6561</t>
   </si>
   <si>
@@ -102,12 +85,6 @@
     <t>QQQ_6539</t>
   </si>
   <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.0025</t>
-  </si>
-  <si>
     <t>QQQ_6563</t>
   </si>
   <si>
@@ -123,9 +100,6 @@
     <t>QQQ_6541</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>QQQ_6565</t>
   </si>
   <si>
@@ -141,12 +115,6 @@
     <t>QQQ_6543</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
     <t>QQQ_6567</t>
   </si>
   <si>
@@ -175,9 +143,6 @@
   </si>
   <si>
     <t>QQQ_6547</t>
-  </si>
-  <si>
-    <t>0.25</t>
   </si>
   <si>
     <t>QQQ_6571</t>
@@ -255,158 +220,140 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -593,15 +540,15 @@
   </fills>
   <borders count="10">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -609,8 +556,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -618,8 +565,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -627,12 +574,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -642,12 +589,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -657,8 +604,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -666,12 +613,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -681,12 +628,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -696,8 +643,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -751,53 +698,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,9 +759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -823,39 +769,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -907,7 +853,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -959,32 +905,32 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -992,25 +938,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1018,26 +964,26 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1051,7 +997,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1063,32 +1009,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1097,27 +1043,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DF55AD-BEF5-45AC-89B6-EE97A14CF494}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1153,19 +1119,19 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="G2">
         <v>831</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1176,19 +1142,19 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="G3">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1199,19 +1165,19 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="G4">
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1222,19 +1188,19 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="G5">
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1245,19 +1211,19 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="G6">
         <v>1061</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1268,19 +1234,19 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
+      <c r="E7">
+        <v>0.01</v>
+      </c>
+      <c r="F7">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G7">
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1291,19 +1257,19 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
+      <c r="E8">
+        <v>0.01</v>
+      </c>
+      <c r="F8">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G8">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1314,19 +1280,19 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G9">
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1337,19 +1303,19 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="F10">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G10">
         <v>1221</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1360,19 +1326,19 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G11">
         <v>1290</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1383,19 +1349,19 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G12">
         <v>3224</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1406,19 +1372,19 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
+      <c r="E13">
+        <v>0.05</v>
+      </c>
+      <c r="F13">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G13">
         <v>3040</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1429,19 +1395,19 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="F14">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G14">
         <v>1192</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1452,19 +1418,19 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
+      <c r="E15">
+        <v>0.05</v>
+      </c>
+      <c r="F15">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G15">
         <v>3125</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1475,19 +1441,19 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+      <c r="F16">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G16">
         <v>3699</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1498,19 +1464,19 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G17">
         <v>2553</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1521,19 +1487,19 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G18">
         <v>2391</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1544,19 +1510,19 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G19">
         <v>2235</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1567,19 +1533,19 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G20">
         <v>3579</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1590,19 +1556,19 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
+      <c r="E21">
+        <v>0.1</v>
+      </c>
+      <c r="F21">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G21">
         <v>2590</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1613,19 +1579,19 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G22">
         <v>10583</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1636,19 +1602,19 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>39</v>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G23">
         <v>11519</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1659,19 +1625,19 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G24">
         <v>12433</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1682,19 +1648,19 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G25">
         <v>12571</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1705,19 +1671,19 @@
       <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G26">
         <v>10442</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1731,16 +1697,16 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
+      <c r="F27">
+        <v>0.05</v>
       </c>
       <c r="G27">
         <v>16135</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1754,16 +1720,16 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>25</v>
+      <c r="F28">
+        <v>0.05</v>
       </c>
       <c r="G28">
         <v>18198</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1777,16 +1743,16 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>25</v>
+      <c r="F29">
+        <v>0.05</v>
       </c>
       <c r="G29">
         <v>18048</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1800,16 +1766,16 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>25</v>
+      <c r="F30">
+        <v>0.05</v>
       </c>
       <c r="G30">
         <v>17140</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1823,16 +1789,16 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>25</v>
+      <c r="F31">
+        <v>0.05</v>
       </c>
       <c r="G31">
         <v>15410</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1846,16 +1812,16 @@
       <c r="E32">
         <v>5</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>50</v>
+      <c r="F32">
+        <v>0.25</v>
       </c>
       <c r="G32">
         <v>59885</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1869,16 +1835,16 @@
       <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>50</v>
+      <c r="F33">
+        <v>0.25</v>
       </c>
       <c r="G33">
         <v>63652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1892,16 +1858,16 @@
       <c r="E34">
         <v>5</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>50</v>
+      <c r="F34">
+        <v>0.25</v>
       </c>
       <c r="G34">
         <v>63756</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1915,16 +1881,16 @@
       <c r="E35">
         <v>5</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>50</v>
+      <c r="F35">
+        <v>0.25</v>
       </c>
       <c r="G35">
         <v>64433</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1938,16 +1904,16 @@
       <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>50</v>
+      <c r="F36">
+        <v>0.25</v>
       </c>
       <c r="G36">
         <v>55300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1961,16 +1927,16 @@
       <c r="E37">
         <v>10</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>38</v>
+      <c r="F37">
+        <v>0.5</v>
       </c>
       <c r="G37">
         <v>76043</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1984,16 +1950,16 @@
       <c r="E38">
         <v>10</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>38</v>
+      <c r="F38">
+        <v>0.5</v>
       </c>
       <c r="G38">
         <v>86242</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2007,16 +1973,16 @@
       <c r="E39">
         <v>10</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>38</v>
+      <c r="F39">
+        <v>0.5</v>
       </c>
       <c r="G39">
         <v>87396</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2030,16 +1996,16 @@
       <c r="E40">
         <v>10</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>38</v>
+      <c r="F40">
+        <v>0.5</v>
       </c>
       <c r="G40">
         <v>83826</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2053,16 +2019,16 @@
       <c r="E41">
         <v>10</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>38</v>
+      <c r="F41">
+        <v>0.5</v>
       </c>
       <c r="G41">
         <v>76495</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2076,16 +2042,16 @@
       <c r="E42">
         <v>50</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>2.5</v>
       </c>
       <c r="G42">
         <v>278386</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2099,16 +2065,16 @@
       <c r="E43">
         <v>50</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>2.5</v>
       </c>
       <c r="G43">
         <v>311712</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2122,16 +2088,16 @@
       <c r="E44">
         <v>50</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>2.5</v>
       </c>
       <c r="G44">
         <v>315431</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2145,16 +2111,16 @@
       <c r="E45">
         <v>50</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>2.5</v>
       </c>
       <c r="G45">
         <v>319255</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2168,16 +2134,16 @@
       <c r="E46">
         <v>50</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>2.5</v>
       </c>
       <c r="G46">
         <v>264093</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2191,16 +2157,16 @@
       <c r="E47">
         <v>100</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>5</v>
       </c>
       <c r="G47">
         <v>621757</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2214,16 +2180,16 @@
       <c r="E48">
         <v>100</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>5</v>
       </c>
       <c r="G48">
         <v>701668</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2237,16 +2203,16 @@
       <c r="E49">
         <v>100</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>5</v>
       </c>
       <c r="G49">
         <v>691219</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2260,16 +2226,16 @@
       <c r="E50">
         <v>100</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>5</v>
       </c>
       <c r="G50">
         <v>671145</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2283,16 +2249,16 @@
       <c r="E51">
         <v>100</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>5</v>
       </c>
       <c r="G51">
         <v>495259</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2306,16 +2272,16 @@
       <c r="E52">
         <v>500</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>25</v>
       </c>
       <c r="G52">
         <v>3112587</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2329,16 +2295,16 @@
       <c r="E53">
         <v>500</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>25</v>
       </c>
       <c r="G53">
         <v>3266792</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2352,16 +2318,16 @@
       <c r="E54">
         <v>500</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>25</v>
       </c>
       <c r="G54">
         <v>3478063</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2375,16 +2341,16 @@
       <c r="E55">
         <v>500</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>25</v>
       </c>
       <c r="G55">
         <v>3418581</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2398,7 +2364,7 @@
       <c r="E56">
         <v>500</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>25</v>
       </c>
       <c r="G56">
@@ -2406,6 +2372,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>